--- a/data/trans_orig/P56S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C93EFD-5C1C-4494-B153-C39B12DB3EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D97742-CB0D-498C-82D5-16B8284D939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2052FFF-4621-44C4-BF2E-353A03111528}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E708906B-32EB-4D32-BDB1-912963C12631}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9020048F-0199-4F63-946A-A128485D1BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5BFB9D-984B-4AEE-816E-3E62E730AD48}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DB9FFF-B062-4545-933F-55768E13A4EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10741666-1190-40A0-AF11-243779DB96FF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802E012-5031-42BE-A7DB-C58BA987A22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B5A9BC-237D-4609-BB18-8528AB16314C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D97742-CB0D-498C-82D5-16B8284D939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CA186F-FEDF-4502-80DF-EE288E64B74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E708906B-32EB-4D32-BDB1-912963C12631}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{233C4CDB-DA81-4155-85C9-EE8BA9587C10}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -130,7 +130,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,51%)</t>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5BFB9D-984B-4AEE-816E-3E62E730AD48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58057A4A-FCA3-447B-AB64-4676C5BD7785}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10741666-1190-40A0-AF11-243779DB96FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87ED095-1341-4023-8457-A9A7B5903CEC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B5A9BC-237D-4609-BB18-8528AB16314C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884030D0-0144-4E76-9D42-CF2BCA1AE944}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
